--- a/Lacex_summary_101119_NoT1Lex_0.5_bound4.xlsx
+++ b/Lacex_summary_101119_NoT1Lex_0.5_bound4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEB38D5-692E-41D2-9052-727C7D46B5D2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48887EE6-E122-47C4-9125-38702CC32C24}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{944514D0-7CE3-4A52-86C8-DABAF48F9D3F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{944514D0-7CE3-4A52-86C8-DABAF48F9D3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,85 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="23">
+  <si>
+    <t>HK-2</t>
+  </si>
+  <si>
+    <t>UMRC6</t>
+  </si>
+  <si>
+    <t>UOK262</t>
+  </si>
+  <si>
+    <t>UOK + DIDS</t>
+  </si>
+  <si>
+    <t>T1P</t>
+  </si>
+  <si>
+    <t>Kpl</t>
+  </si>
+  <si>
+    <t>UOK262 with DIDS</t>
+  </si>
+  <si>
+    <t>Flow_pyr</t>
+  </si>
+  <si>
+    <t>T1Lin</t>
+  </si>
+  <si>
+    <t>Klp</t>
+  </si>
+  <si>
+    <t>KMCT4</t>
+  </si>
+  <si>
+    <t>T1Lex</t>
+  </si>
+  <si>
+    <t>Flow_Lac</t>
+  </si>
+  <si>
+    <t>K_MCT1</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Gamma</t>
+  </si>
+  <si>
+    <t>Rsqr_Pyr</t>
+  </si>
+  <si>
+    <t>Rsqrd_Lacin</t>
+  </si>
+  <si>
+    <t>Rsqrd_Lacex</t>
+  </si>
+  <si>
+    <t>RMSE_Pyr</t>
+  </si>
+  <si>
+    <t>RMSE_Lacin</t>
+  </si>
+  <si>
+    <t>RMSE_Lacex</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -61,8 +138,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,15 +455,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AFC0C61-0780-4E77-882F-1D8A0AC66290}">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:AB88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:R16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>48.120984953048456</v>
       </c>
@@ -441,7 +519,7 @@
         <v>0.13529209503377659</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>50.67957943089678</v>
       </c>
@@ -497,7 +575,7 @@
         <v>7.898191902838235E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>49.102731458955468</v>
       </c>
@@ -553,7 +631,7 @@
         <v>0.22768543007933903</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>49.945779506146657</v>
       </c>
@@ -609,7 +687,7 @@
         <v>0.21852389687021595</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>49.415395057657321</v>
       </c>
@@ -664,8 +742,41 @@
       <c r="R5">
         <v>0.12961351395220802</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T5" s="1">
+        <f>1/51</f>
+        <v>1.9607843137254902E-2</v>
+      </c>
+      <c r="U5">
+        <f>0.0001</f>
+        <v>1E-4</v>
+      </c>
+      <c r="V5">
+        <f>10^-8</f>
+        <v>1E-8</v>
+      </c>
+      <c r="W5" s="1">
+        <f>1/30-0.001</f>
+        <v>3.2333333333333332E-2</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>1E-3</v>
+      </c>
+      <c r="Z5" s="1">
+        <f>1/37.7</f>
+        <v>2.652519893899204E-2</v>
+      </c>
+      <c r="AA5">
+        <f>10^-8</f>
+        <v>1E-8</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>49.325685732126558</v>
       </c>
@@ -720,8 +831,38 @@
       <c r="R6">
         <v>0.10863404422310365</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T6" s="1">
+        <f>1/47</f>
+        <v>2.1276595744680851E-2</v>
+      </c>
+      <c r="U6">
+        <v>0.08</v>
+      </c>
+      <c r="V6">
+        <v>10</v>
+      </c>
+      <c r="W6" s="1">
+        <f>1/10+0.001</f>
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="X6">
+        <v>0.1</v>
+      </c>
+      <c r="Y6">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="1">
+        <f>1/35.7</f>
+        <v>2.8011204481792715E-2</v>
+      </c>
+      <c r="AA6">
+        <v>4</v>
+      </c>
+      <c r="AB6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>49.132666369394151</v>
       </c>
@@ -777,7 +918,7 @@
         <v>0.12365655191288109</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>48.970202812975153</v>
       </c>
@@ -833,7 +974,7 @@
         <v>7.7686146930107239E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>49.835297628607229</v>
       </c>
@@ -889,7 +1030,7 @@
         <v>0.2004229230176332</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>50.999999999896758</v>
       </c>
@@ -945,7 +1086,7 @@
         <v>0.12477287042709752</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>50.999828193429515</v>
       </c>
@@ -1001,7 +1142,7 @@
         <v>0.15430824714932928</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>50.112425925844882</v>
       </c>
@@ -1057,7 +1198,7 @@
         <v>0.25541821777154544</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>50.170242659225302</v>
       </c>
@@ -1113,7 +1254,7 @@
         <v>0.34675211622823271</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>50.75299019407332</v>
       </c>
@@ -1169,7 +1310,7 @@
         <v>0.12736173371419041</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>50.898524719234672</v>
       </c>
@@ -1225,7 +1366,7 @@
         <v>9.3377877727596592E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>49.75044402499217</v>
       </c>
@@ -1281,7 +1422,1595 @@
         <v>0.47587214921484333</v>
       </c>
     </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <f>_xlfn.IFS(ABS(1/A1-T$5)&lt;=0.001*(1/A1),"Lower",ABS(1/A1-T$6)&lt;=0.001*(1/A1),"Upper",TRUE,1)</f>
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17:Q32" si="0">_xlfn.IFS(ABS(1/B1-U$5)&lt;=0.001*(1/B1),"Lower",ABS(1/B1-U$6)&lt;=0.001*(1/B1),"Upper",TRUE,1)</f>
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ref="I18:I32" si="1">_xlfn.IFS(ABS(1/A2-T$5)&lt;=0.001*(1/A2),"Lower",ABS(1/A2-T$6)&lt;=0.001*(1/A2),"Upper",TRUE,1)</f>
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v>Upper</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <f>AVERAGE(A$1:A$3)</f>
+        <v>49.301098614300237</v>
+      </c>
+      <c r="C19">
+        <f>AVERAGE(A$4:A$6)</f>
+        <v>49.562286765310184</v>
+      </c>
+      <c r="D19">
+        <f>AVERAGE(A$9:A$11)</f>
+        <v>50.611708607311165</v>
+      </c>
+      <c r="E19">
+        <f>AVERAGE(A$13:A$16)</f>
+        <v>50.393050399381366</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <f>STDEV(A$1:A$3)/SQRT(COUNT(A$1:A$3))</f>
+        <v>0.74523230645633032</v>
+      </c>
+      <c r="C20">
+        <f>STDEV(A$4:A$6)/SQRT(COUNT(A$4:A$6))</f>
+        <v>0.19348725408279632</v>
+      </c>
+      <c r="D20">
+        <f>STDEV(A$9:A$11)/SQRT(COUNT(A$9:A$11))</f>
+        <v>0.38820549252012182</v>
+      </c>
+      <c r="E20">
+        <f>STDEV(A$13:A$16)/SQRT(COUNT(A$13:A$16))</f>
+        <v>0.26577672103244981</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V20" t="e">
+        <f>1/W9</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V21" t="e">
+        <f>1/W10</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <f>MAX(L5:L16)</f>
+        <v>1300249383.1199305</v>
+      </c>
+      <c r="T22">
+        <f>S22/10^8</f>
+        <v>13.002493831199304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f>STDEV(B5:B16)/SQRT(12)</f>
+        <v>6.2502185838522028E-3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <f>AVERAGE(B$1:B$3)</f>
+        <v>4.2896681809653234E-3</v>
+      </c>
+      <c r="D23">
+        <f>AVERAGE(B$4:B$6)</f>
+        <v>2.4861615501141899E-2</v>
+      </c>
+      <c r="E23">
+        <f>AVERAGE(B$9:B$11)</f>
+        <v>1.6749995303072692E-2</v>
+      </c>
+      <c r="F23">
+        <f>AVERAGE(B$13:B$16)</f>
+        <v>1.1441571466839526E-2</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <f>STDEV(B$1:B$3)/SQRT(COUNT(B$1:B$3))</f>
+        <v>4.5136714056914323E-4</v>
+      </c>
+      <c r="D24">
+        <f>STDEV(B$4:B$6)/SQRT(COUNT(B$4:B$6))</f>
+        <v>1.286620639713894E-2</v>
+      </c>
+      <c r="E24">
+        <f>STDEV(B$9:B$11)/SQRT(COUNT(B$9:B$11))</f>
+        <v>4.523163414573133E-3</v>
+      </c>
+      <c r="F24">
+        <f>STDEV(B$13:B$16)/SQRT(COUNT(B$13:B$16))</f>
+        <v>3.5481464272013761E-3</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="1"/>
+        <v>Lower</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <f>AVERAGE(C$1:C$3)</f>
+        <v>0.18960492684311411</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGE(C$4:C$6)</f>
+        <v>9.9072142609114885E-2</v>
+      </c>
+      <c r="F27">
+        <f>AVERAGE(C$9:C$11)</f>
+        <v>0.16157148788969947</v>
+      </c>
+      <c r="G27">
+        <f>AVERAGE(C$13:C$16)</f>
+        <v>0.13148648062923105</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="1"/>
+        <v>Lower</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <f>STDEV(C$1:C$3)/SQRT(COUNT(C$1:C$3))</f>
+        <v>3.453818284697778E-2</v>
+      </c>
+      <c r="E28">
+        <f>STDEV(C$4:C$6)/SQRT(COUNT(C$4:C$6))</f>
+        <v>9.6727988445781399E-2</v>
+      </c>
+      <c r="F28">
+        <f>STDEV(C$9:C$11)/SQRT(COUNT(C$9:C$11))</f>
+        <v>8.1784590716324684E-2</v>
+      </c>
+      <c r="G28">
+        <f>STDEV(C$13:C$16)/SQRT(COUNT(C$13:C$16))</f>
+        <v>7.9133370889094459E-2</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <f>STDEV(D5:D16)/SQRT(12)</f>
+        <v>1.8466334956754675</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <f>AVERAGE(D$1:D$3)</f>
+        <v>20.810952355822621</v>
+      </c>
+      <c r="F31">
+        <f>AVERAGE(D$4:D$6)</f>
+        <v>19.74635928726207</v>
+      </c>
+      <c r="G31">
+        <f>AVERAGE(D$9:D$11)</f>
+        <v>16.604148130096956</v>
+      </c>
+      <c r="H31">
+        <f>AVERAGE(D$13:D$16)</f>
+        <v>17.226799957135228</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f>MIN(D5:D14)</f>
+        <v>10.883145559685202</v>
+      </c>
+      <c r="E32">
+        <f>STDEV(D$1:D$3)/SQRT(COUNT(D$1:D$3))</f>
+        <v>5.5763549867175604</v>
+      </c>
+      <c r="F32">
+        <f>STDEV(D$4:D$6)/SQRT(COUNT(D$4:D$6))</f>
+        <v>4.4316439098021796</v>
+      </c>
+      <c r="G32">
+        <f>STDEV(D$9:D$11)/SQRT(COUNT(D$9:D$11))</f>
+        <v>3.0610507669890819</v>
+      </c>
+      <c r="H32">
+        <f>STDEV(D$13:D$16)/SQRT(COUNT(D$13:D$16))</f>
+        <v>4.0195995713649184</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f>MAX(G5:G14)</f>
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35">
+        <f>AVERAGE(E$1:E$3)</f>
+        <v>3.0839808344364923E-14</v>
+      </c>
+      <c r="G35">
+        <f>AVERAGE(E$4:E$6)</f>
+        <v>2.1683006181164669E-5</v>
+      </c>
+      <c r="H35">
+        <f>AVERAGE(E$9:E$11)</f>
+        <v>6.1785810744958316E-5</v>
+      </c>
+      <c r="I35">
+        <f>AVERAGE(E$13:E$16)</f>
+        <v>2.2601775281080903E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <f>STDEV(E$1:E$3)/SQRT(COUNT(E$1:E$3))</f>
+        <v>6.8584445626451913E-15</v>
+      </c>
+      <c r="G36">
+        <f>STDEV(E$4:E$6)/SQRT(COUNT(E$4:E$6))</f>
+        <v>2.1681951236417402E-5</v>
+      </c>
+      <c r="H36">
+        <f>STDEV(E$9:E$11)/SQRT(COUNT(E$9:E$11))</f>
+        <v>6.1785810719029878E-5</v>
+      </c>
+      <c r="I36">
+        <f>STDEV(E$13:E$16)/SQRT(COUNT(E$13:E$16))</f>
+        <v>1.3199448733005817E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>2</v>
+      </c>
+      <c r="J38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E39">
+        <f>STDEV(F5:F16)/SQRT(12)</f>
+        <v>0.17994154382257055</v>
+      </c>
+      <c r="F39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39">
+        <f>AVERAGE(F$1:F$3)</f>
+        <v>0.18569186105247851</v>
+      </c>
+      <c r="H39">
+        <f>AVERAGE(F$4:F$6)</f>
+        <v>0.95811018355479394</v>
+      </c>
+      <c r="I39">
+        <f>AVERAGE(F$9:F$11)</f>
+        <v>0.75746928341821074</v>
+      </c>
+      <c r="J39">
+        <f>AVERAGE(F$13:F$16)</f>
+        <v>0.32262317472826074</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G40">
+        <f>STDEV(F$1:F$3)/SQRT(COUNT(F$1:F$3))</f>
+        <v>3.9144315790535879E-2</v>
+      </c>
+      <c r="H40">
+        <f>STDEV(F$4:F$6)/SQRT(COUNT(F$4:F$6))</f>
+        <v>0.50066748384855686</v>
+      </c>
+      <c r="I40">
+        <f>STDEV(F$9:F$11)/SQRT(COUNT(F$9:F$11))</f>
+        <v>0.33664589178196375</v>
+      </c>
+      <c r="J40">
+        <f>STDEV(F$13:F$16)/SQRT(COUNT(F$13:F$16))</f>
+        <v>0.24028027666240925</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43">
+        <f>AVERAGE(G$1:G$3)</f>
+        <v>36.700000000000003</v>
+      </c>
+      <c r="I43">
+        <f>AVERAGE(G$4:G$6)</f>
+        <v>36.700000000000003</v>
+      </c>
+      <c r="J43">
+        <f>AVERAGE(G$9:G$11)</f>
+        <v>36.700000000000003</v>
+      </c>
+      <c r="K43">
+        <f>AVERAGE(G$13:G$16)</f>
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H44">
+        <f>STDEV(G$1:G$3)/SQRT(COUNT(G$1:G$3))</f>
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <f>STDEV(G$4:G$6)/SQRT(COUNT(G$4:G$6))</f>
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <f>STDEV(G$9:G$11)/SQRT(COUNT(G$9:G$11))</f>
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <f>STDEV(G$13:G$16)/SQRT(COUNT(G$13:G$16))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I46" t="s">
+        <v>0</v>
+      </c>
+      <c r="J46" t="s">
+        <v>1</v>
+      </c>
+      <c r="K46" t="s">
+        <v>2</v>
+      </c>
+      <c r="L46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H47" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47">
+        <f>AVERAGE(H$1:H$3)</f>
+        <v>0.15167392099321886</v>
+      </c>
+      <c r="J47">
+        <f>AVERAGE(H$4:H$6)</f>
+        <v>0.85938071299954044</v>
+      </c>
+      <c r="K47">
+        <f>AVERAGE(H$9:H$11)</f>
+        <v>1.7543675273996369</v>
+      </c>
+      <c r="L47">
+        <f>AVERAGE(H$13:H$16)</f>
+        <v>1.1839364692621164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I48">
+        <f>STDEV(H$1:H$3)/SQRT(COUNT(H$1:H$3))</f>
+        <v>3.9814552957846479E-2</v>
+      </c>
+      <c r="J48">
+        <f>STDEV(H$4:H$6)/SQRT(COUNT(H$4:H$6))</f>
+        <v>0.50005890000879416</v>
+      </c>
+      <c r="K48">
+        <f>STDEV(H$9:H$11)/SQRT(COUNT(H$9:H$11))</f>
+        <v>1.1433755636931366</v>
+      </c>
+      <c r="L48">
+        <f>STDEV(H$13:H$16)/SQRT(COUNT(H$13:H$16))</f>
+        <v>0.94782010960658447</v>
+      </c>
+    </row>
+    <row r="50" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="J50" t="s">
+        <v>0</v>
+      </c>
+      <c r="K50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L50" t="s">
+        <v>2</v>
+      </c>
+      <c r="M50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I51" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51">
+        <f>AVERAGE(I$1:I$3)</f>
+        <v>5.6769502229053331E-2</v>
+      </c>
+      <c r="K51">
+        <f>AVERAGE(I$4:I$6)</f>
+        <v>1.2397220607215576E-4</v>
+      </c>
+      <c r="L51">
+        <f>AVERAGE(I$9:I$11)</f>
+        <v>1.8724440935456332E-9</v>
+      </c>
+      <c r="M51">
+        <f>AVERAGE(I$13:I$16)</f>
+        <v>5.674614112285304E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="J52">
+        <f>STDEV(I$1:I$3)/SQRT(COUNT(I$1:I$3))</f>
+        <v>5.6769448457710148E-2</v>
+      </c>
+      <c r="K52">
+        <f>STDEV(I$4:I$6)/SQRT(COUNT(I$4:I$6))</f>
+        <v>1.2395701069690279E-4</v>
+      </c>
+      <c r="L52">
+        <f>STDEV(I$9:I$11)/SQRT(COUNT(I$9:I$11))</f>
+        <v>1.8724202871439433E-9</v>
+      </c>
+      <c r="M52">
+        <f>STDEV(I$13:I$16)/SQRT(COUNT(I$13:I$16))</f>
+        <v>5.6746141122830836E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="K54" t="s">
+        <v>0</v>
+      </c>
+      <c r="L54" t="s">
+        <v>1</v>
+      </c>
+      <c r="M54" t="s">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="J55" t="s">
+        <v>14</v>
+      </c>
+      <c r="K55">
+        <f>AVERAGE(J$1:J$3)</f>
+        <v>3.6073737453264285</v>
+      </c>
+      <c r="L55">
+        <f>AVERAGE(J$4:J$6)</f>
+        <v>4.58115771132909</v>
+      </c>
+      <c r="M55">
+        <f>AVERAGE(J$9:J$11)</f>
+        <v>3.6056343287663903</v>
+      </c>
+      <c r="N55">
+        <f>AVERAGE(J$13:J$16)</f>
+        <v>4.4114283686700801</v>
+      </c>
+    </row>
+    <row r="56" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="K56">
+        <f>STDEV(J$1:J$3)/SQRT(COUNT(J$1:J$3))</f>
+        <v>1.0122917203003896</v>
+      </c>
+      <c r="L56">
+        <f>STDEV(J$4:J$6)/SQRT(COUNT(J$4:J$6))</f>
+        <v>0.74102588658805402</v>
+      </c>
+      <c r="M56">
+        <f>STDEV(J$9:J$11)/SQRT(COUNT(J$9:J$11))</f>
+        <v>0.42588055408726727</v>
+      </c>
+      <c r="N56">
+        <f>STDEV(J$13:J$16)/SQRT(COUNT(J$13:J$16))</f>
+        <v>0.66382289234155878</v>
+      </c>
+    </row>
+    <row r="58" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="L58" t="s">
+        <v>0</v>
+      </c>
+      <c r="M58" t="s">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>2</v>
+      </c>
+      <c r="O58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="K59" t="s">
+        <v>15</v>
+      </c>
+      <c r="L59">
+        <f>AVERAGE(K$1:K$3)</f>
+        <v>18.818243658329635</v>
+      </c>
+      <c r="M59">
+        <f>AVERAGE(K$4:K$6)</f>
+        <v>14.884022111131925</v>
+      </c>
+      <c r="N59">
+        <f>AVERAGE(K$9:K$11)</f>
+        <v>16.201054948229014</v>
+      </c>
+      <c r="O59">
+        <f>AVERAGE(K$13:K$16)</f>
+        <v>15.511571540116371</v>
+      </c>
+    </row>
+    <row r="60" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="L60">
+        <f>STDEV(K$1:K$3)/SQRT(COUNT(K$1:K$3))</f>
+        <v>2.7496727867516153</v>
+      </c>
+      <c r="M60">
+        <f>STDEV(K$4:K$6)/SQRT(COUNT(K$4:K$6))</f>
+        <v>2.7073944668784131</v>
+      </c>
+      <c r="N60">
+        <f>STDEV(K$9:K$11)/SQRT(COUNT(K$9:K$11))</f>
+        <v>3.3207216505184363</v>
+      </c>
+      <c r="O60">
+        <f>STDEV(K$13:K$16)/SQRT(COUNT(K$13:K$16))</f>
+        <v>1.6948098052136258</v>
+      </c>
+    </row>
+    <row r="62" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="M62" t="s">
+        <v>0</v>
+      </c>
+      <c r="N62" t="s">
+        <v>1</v>
+      </c>
+      <c r="O62" t="s">
+        <v>2</v>
+      </c>
+      <c r="P62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="L63" t="s">
+        <v>16</v>
+      </c>
+      <c r="M63">
+        <f>AVERAGE(L$1:L$3)</f>
+        <v>302386606.80297941</v>
+      </c>
+      <c r="N63">
+        <f>AVERAGE(L$4:L$6)</f>
+        <v>307023270.74240673</v>
+      </c>
+      <c r="O63">
+        <f>AVERAGE(L$9:L$11)</f>
+        <v>444284384.85612106</v>
+      </c>
+      <c r="P63">
+        <f>AVERAGE(L$13:L$16)</f>
+        <v>589426293.74343693</v>
+      </c>
+    </row>
+    <row r="64" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="M64">
+        <f>STDEV(L$1:L$3)/SQRT(COUNT(L$1:L$3))</f>
+        <v>98309726.586222306</v>
+      </c>
+      <c r="N64">
+        <f>STDEV(L$4:L$6)/SQRT(COUNT(L$4:L$6))</f>
+        <v>161012976.80738807</v>
+      </c>
+      <c r="O64">
+        <f>STDEV(L$9:L$11)/SQRT(COUNT(L$9:L$11))</f>
+        <v>380817385.53957421</v>
+      </c>
+      <c r="P64">
+        <f>STDEV(L$13:L$16)/SQRT(COUNT(L$13:L$16))</f>
+        <v>96079951.821274728</v>
+      </c>
+    </row>
+    <row r="66" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="N66" t="s">
+        <v>0</v>
+      </c>
+      <c r="O66" t="s">
+        <v>1</v>
+      </c>
+      <c r="P66" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M67" t="s">
+        <v>17</v>
+      </c>
+      <c r="N67">
+        <f>AVERAGE(M$1:M$3)</f>
+        <v>0.99662997485326177</v>
+      </c>
+      <c r="O67">
+        <f>AVERAGE(M$4:M$6)</f>
+        <v>0.99678503476037061</v>
+      </c>
+      <c r="P67">
+        <f>AVERAGE(M$9:M$11)</f>
+        <v>0.99445960073540229</v>
+      </c>
+      <c r="Q67">
+        <f>AVERAGE(M$13:M$16)</f>
+        <v>0.99613165123535086</v>
+      </c>
+    </row>
+    <row r="68" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="N68">
+        <f>STDEV(M$1:M$3)/SQRT(COUNT(M$1:M$3))</f>
+        <v>4.9336933639420395E-4</v>
+      </c>
+      <c r="O68">
+        <f>STDEV(M$4:M$6)/SQRT(COUNT(M$4:M$6))</f>
+        <v>3.4870100139291202E-4</v>
+      </c>
+      <c r="P68">
+        <f>STDEV(M$9:M$11)/SQRT(COUNT(M$9:M$11))</f>
+        <v>1.3128003046979689E-3</v>
+      </c>
+      <c r="Q68">
+        <f>STDEV(M$13:M$16)/SQRT(COUNT(M$13:M$16))</f>
+        <v>1.6831740387914193E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="O70" t="s">
+        <v>0</v>
+      </c>
+      <c r="P70" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>2</v>
+      </c>
+      <c r="R70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="N71" t="s">
+        <v>18</v>
+      </c>
+      <c r="O71">
+        <f>AVERAGE(N$1:N$3)</f>
+        <v>0.9932053858187343</v>
+      </c>
+      <c r="P71">
+        <f>AVERAGE(N$4:N$6)</f>
+        <v>0.9768610231641196</v>
+      </c>
+      <c r="Q71">
+        <f>AVERAGE(N$7:N$12)</f>
+        <v>0.97644584358969932</v>
+      </c>
+      <c r="R71">
+        <f>AVERAGE(N$13:N$16)</f>
+        <v>0.99222194955021115</v>
+      </c>
+    </row>
+    <row r="72" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="O72">
+        <f>STDEV(N$1:N$3)/SQRT(COUNT(N$1:N$3))</f>
+        <v>3.5672622828342628E-3</v>
+      </c>
+      <c r="P72">
+        <f>STDEV(N$4:N$6)/SQRT(COUNT(N$4:N$6))</f>
+        <v>9.6868985406543418E-3</v>
+      </c>
+      <c r="Q72">
+        <f>STDEV(N$9:N$11)/SQRT(COUNT(N$9:N$11))</f>
+        <v>1.1142130813322758E-2</v>
+      </c>
+      <c r="R72">
+        <f>STDEV(N$13:N$16)/SQRT(COUNT(N$13:N$16))</f>
+        <v>2.7076992646400352E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="P74" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>1</v>
+      </c>
+      <c r="R74" t="s">
+        <v>2</v>
+      </c>
+      <c r="S74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="O75" t="s">
+        <v>19</v>
+      </c>
+      <c r="P75">
+        <f>AVERAGE(O$1:O$3)</f>
+        <v>0.98952950672153239</v>
+      </c>
+      <c r="Q75">
+        <f>AVERAGE(O$4:O$6)</f>
+        <v>0.9880773006446999</v>
+      </c>
+      <c r="R75">
+        <f>AVERAGE(O$7:O$12)</f>
+        <v>0.98715697418925696</v>
+      </c>
+      <c r="S75">
+        <f>AVERAGE(O$13:O$16)</f>
+        <v>0.97503602088011754</v>
+      </c>
+    </row>
+    <row r="76" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="P76">
+        <f>STDEV(O$1:O$3)/SQRT(COUNT(O$1:O$3))</f>
+        <v>6.2777716142276441E-3</v>
+      </c>
+      <c r="Q76">
+        <f>STDEV(O$4:O$6)/SQRT(COUNT(O$4:O$6))</f>
+        <v>5.9349188558037629E-3</v>
+      </c>
+      <c r="R76">
+        <f>STDEV(O$9:O$11)/SQRT(COUNT(O$9:O$11))</f>
+        <v>3.576846594201117E-3</v>
+      </c>
+      <c r="S76">
+        <f>STDEV(O$13:O$16)/SQRT(COUNT(O$13:O$16))</f>
+        <v>1.2322607275316295E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="Q78" t="s">
+        <v>0</v>
+      </c>
+      <c r="R78" t="s">
+        <v>1</v>
+      </c>
+      <c r="S78" t="s">
+        <v>2</v>
+      </c>
+      <c r="T78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="P79" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q79">
+        <f>AVERAGE(P$1:P$3)</f>
+        <v>8.2769960397643241E-2</v>
+      </c>
+      <c r="R79">
+        <f>AVERAGE(P$4:P$6)</f>
+        <v>8.1747193572841867E-2</v>
+      </c>
+      <c r="S79">
+        <f>AVERAGE(P$7:P$12)</f>
+        <v>0.10200358542090193</v>
+      </c>
+      <c r="T79">
+        <f>AVERAGE(P$13:P$16)</f>
+        <v>8.0498369786706644E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="Q80">
+        <f>STDEV(P$1:P$3)/SQRT(COUNT(P$1:P$3))</f>
+        <v>6.1728202210555114E-3</v>
+      </c>
+      <c r="R80">
+        <f>STDEV(P$4:P$6)/SQRT(COUNT(P$4:P$6))</f>
+        <v>4.7620562128367263E-3</v>
+      </c>
+      <c r="S80">
+        <f>STDEV(P$7:P$12)/SQRT(COUNT(P$7:P$12))</f>
+        <v>2.3059030396619915E-2</v>
+      </c>
+      <c r="T80">
+        <f>STDEV(P$13:P$16)/SQRT(COUNT(P$13:P$16))</f>
+        <v>2.0137133756946885E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="R82" t="s">
+        <v>0</v>
+      </c>
+      <c r="S82" t="s">
+        <v>1</v>
+      </c>
+      <c r="T82" t="s">
+        <v>2</v>
+      </c>
+      <c r="U82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="Q83" t="s">
+        <v>21</v>
+      </c>
+      <c r="R83">
+        <f>AVERAGE(Q$1:Q$3)</f>
+        <v>0.10956222432737882</v>
+      </c>
+      <c r="S83">
+        <f>AVERAGE(Q$4:Q$6)</f>
+        <v>0.21352230244269288</v>
+      </c>
+      <c r="T83">
+        <f>AVERAGE(Q$7:Q$12)</f>
+        <v>0.18106499430970746</v>
+      </c>
+      <c r="U83">
+        <f>AVERAGE(Q$13:Q$16)</f>
+        <v>0.12812526159577872</v>
+      </c>
+    </row>
+    <row r="84" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="R84">
+        <f>STDEV(Q$1:Q$3)/SQRT(COUNT(Q$1:Q$3))</f>
+        <v>3.0383323459208557E-2</v>
+      </c>
+      <c r="S84">
+        <f>STDEV(Q$4:Q$6)/SQRT(COUNT(Q$4:Q$6))</f>
+        <v>4.5200372153117979E-2</v>
+      </c>
+      <c r="T84">
+        <f>STDEV(Q$7:Q$12)/SQRT(COUNT(Q$7:Q$12))</f>
+        <v>5.4362484637850476E-2</v>
+      </c>
+      <c r="U84">
+        <f>STDEV(Q$13:Q$16)/SQRT(COUNT(Q$13:Q$16))</f>
+        <v>2.7173870157966924E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="S86" t="s">
+        <v>0</v>
+      </c>
+      <c r="T86" t="s">
+        <v>1</v>
+      </c>
+      <c r="U86" t="s">
+        <v>2</v>
+      </c>
+      <c r="V86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="R87" t="s">
+        <v>22</v>
+      </c>
+      <c r="S87">
+        <f>AVERAGE(R$1:R$3)</f>
+        <v>0.14731981471383268</v>
+      </c>
+      <c r="T87">
+        <f>AVERAGE(R$4:R$6)</f>
+        <v>0.15225715168184253</v>
+      </c>
+      <c r="U87">
+        <f>AVERAGE(R$7:R$12)</f>
+        <v>0.15604415953476561</v>
+      </c>
+      <c r="V87">
+        <f>AVERAGE(R$13:R$16)</f>
+        <v>0.2608409692212158</v>
+      </c>
+    </row>
+    <row r="88" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="S88">
+        <f>STDEV(R$1:R$3)/SQRT(COUNT(R$1:R$3))</f>
+        <v>4.3346215060629384E-2</v>
+      </c>
+      <c r="T88">
+        <f>STDEV(R$4:R$6)/SQRT(COUNT(R$4:R$6))</f>
+        <v>3.3682318189836698E-2</v>
+      </c>
+      <c r="U88">
+        <f>STDEV(R$7:R$12)/SQRT(COUNT(R$7:R$12))</f>
+        <v>2.5829260074446234E-2</v>
+      </c>
+      <c r="V88">
+        <f>STDEV(R$13:R$16)/SQRT(COUNT(R$13:R$16))</f>
+        <v>9.1049312130686136E-2</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="I17:Q32">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Lacex_summary_101119_NoT1Lex_0.5_bound4.xlsx
+++ b/Lacex_summary_101119_NoT1Lex_0.5_bound4.xlsx
@@ -2,18 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48887EE6-E122-47C4-9125-38702CC32C24}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3698E6F-23FD-4DAD-AC3D-D92D74707EB9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{944514D0-7CE3-4A52-86C8-DABAF48F9D3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="25">
   <si>
     <t>HK-2</t>
   </si>
@@ -101,6 +102,12 @@
   <si>
     <t>RMSE_Lacex</t>
   </si>
+  <si>
+    <t>4.29E-03 ± 4.51E-04</t>
+  </si>
+  <si>
+    <t>1.24E-04 ± 1.24E-04</t>
+  </si>
 </sst>
 </file>
 
@@ -156,6 +163,3053 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kpl</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-6327-48E0-8C0D-8DA74CBAF554}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6327-48E0-8C0D-8DA74CBAF554}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-6327-48E0-8C0D-8DA74CBAF554}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-6327-48E0-8C0D-8DA74CBAF554}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$C$24:$F$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>4.5136714056914323E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.286620639713894E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.523163414573133E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.5481464272013761E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$C$24:$F$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>4.5136714056914323E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.286620639713894E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.523163414573133E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.5481464272013761E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$22:$F$22</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>HK-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>UMRC6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>UOK262</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>UOK + DIDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$23:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.2896681809653234E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4861615501141899E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6749995303072692E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1441571466839526E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6327-48E0-8C0D-8DA74CBAF554}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="606452680"/>
+        <c:axId val="606453008"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="606452680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="606453008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="606453008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="606452680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr b="1">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KMCT4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-2728-4C4B-9052-786A72494AEA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2728-4C4B-9052-786A72494AEA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-2728-4C4B-9052-786A72494AEA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-2728-4C4B-9052-786A72494AEA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$G$40:$J$40</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>3.9144315790535879E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.50066748384855686</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.33664589178196375</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.24028027666240925</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$G$40:$J$40</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>3.9144315790535879E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.50066748384855686</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.33664589178196375</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.24028027666240925</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$38:$J$38</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>HK-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>UMRC6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>UOK262</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>UOK + DIDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$39:$J$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.18569186105247851</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95811018355479394</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75746928341821074</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32262317472826074</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2728-4C4B-9052-786A72494AEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="555875784"/>
+        <c:axId val="555871520"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="555875784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="555871520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="555871520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="555875784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr b="1">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T1Lin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001C-DACD-49D0-8B59-848727966414}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-DACD-49D0-8B59-848727966414}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001E-DACD-49D0-8B59-848727966414}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-DACD-49D0-8B59-848727966414}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$E$32:$H$32</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>5.5763549867175604</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.4316439098021796</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.0610507669890819</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.0195995713649184</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$E$32:$H$32</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>5.5763549867175604</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.4316439098021796</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.0610507669890819</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.0195995713649184</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$30:$H$30</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>HK-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>UMRC6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>UOK262</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>UOK262 with DIDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$31:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20.810952355822621</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.74635928726207</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.604148130096956</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.226799957135228</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DACD-49D0-8B59-848727966414}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="555870864"/>
+        <c:axId val="555881032"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="555870864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="555881032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="555881032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="555870864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr b="1">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C621BACD-2DC5-4878-B105-001AA64E70D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00D72EBB-67A4-4B19-BBC4-2B89F5CD5581}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2D35C3A-B5E2-4CEA-AB09-F756950D3F90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -455,10 +3509,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AFC0C61-0780-4E77-882F-1D8A0AC66290}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3012,5 +6067,483 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F508EE1-0259-4AF5-B4E7-A436ADD00629}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>49.301098614300237</v>
+      </c>
+      <c r="C2">
+        <v>4.2896681809653234E-3</v>
+      </c>
+      <c r="D2">
+        <v>0.18960492684311411</v>
+      </c>
+      <c r="E2">
+        <v>20.810952355822621</v>
+      </c>
+      <c r="F2">
+        <v>3.0839808344364923E-14</v>
+      </c>
+      <c r="G2">
+        <v>0.18569186105247851</v>
+      </c>
+      <c r="H2">
+        <v>0.15167392099321886</v>
+      </c>
+      <c r="I2">
+        <v>5.6769502229053331E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>49.562286765310184</v>
+      </c>
+      <c r="C3">
+        <v>2.4861615501141899E-2</v>
+      </c>
+      <c r="D3">
+        <v>9.9072142609114885E-2</v>
+      </c>
+      <c r="E3">
+        <v>19.74635928726207</v>
+      </c>
+      <c r="F3">
+        <v>2.1683006181164669E-5</v>
+      </c>
+      <c r="G3">
+        <v>0.95811018355479394</v>
+      </c>
+      <c r="H3">
+        <v>0.85938071299954044</v>
+      </c>
+      <c r="I3">
+        <v>1.2397220607215576E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>50.611708607311165</v>
+      </c>
+      <c r="C4">
+        <v>1.6749995303072692E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.16157148788969947</v>
+      </c>
+      <c r="E4">
+        <v>16.604148130096956</v>
+      </c>
+      <c r="F4">
+        <v>6.1785810744958316E-5</v>
+      </c>
+      <c r="G4">
+        <v>0.75746928341821074</v>
+      </c>
+      <c r="H4">
+        <v>1.7543675273996369</v>
+      </c>
+      <c r="I4">
+        <v>1.8724440935456332E-9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>50.393050399381366</v>
+      </c>
+      <c r="C5">
+        <v>1.1441571466839526E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.13148648062923105</v>
+      </c>
+      <c r="E5">
+        <v>17.226799957135228</v>
+      </c>
+      <c r="F5">
+        <v>2.2601775281080903E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.32262317472826074</v>
+      </c>
+      <c r="H5">
+        <v>1.1839364692621164</v>
+      </c>
+      <c r="I5">
+        <v>5.674614112285304E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0.74523230645633032</v>
+      </c>
+      <c r="C8">
+        <v>4.5136714056914323E-4</v>
+      </c>
+      <c r="D8">
+        <v>3.453818284697778E-2</v>
+      </c>
+      <c r="E8">
+        <v>5.5763549867175604</v>
+      </c>
+      <c r="F8">
+        <v>6.8584445626451913E-15</v>
+      </c>
+      <c r="G8">
+        <v>3.9144315790535879E-2</v>
+      </c>
+      <c r="H8">
+        <v>3.9814552957846479E-2</v>
+      </c>
+      <c r="I8">
+        <v>5.6769448457710148E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0.19348725408279632</v>
+      </c>
+      <c r="C9">
+        <v>1.286620639713894E-2</v>
+      </c>
+      <c r="D9">
+        <v>9.6727988445781399E-2</v>
+      </c>
+      <c r="E9">
+        <v>4.4316439098021796</v>
+      </c>
+      <c r="F9">
+        <v>2.1681951236417402E-5</v>
+      </c>
+      <c r="G9">
+        <v>0.50066748384855686</v>
+      </c>
+      <c r="H9">
+        <v>0.50005890000879416</v>
+      </c>
+      <c r="I9">
+        <v>1.2395701069690279E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>0.38820549252012182</v>
+      </c>
+      <c r="C10">
+        <v>4.523163414573133E-3</v>
+      </c>
+      <c r="D10">
+        <v>8.1784590716324684E-2</v>
+      </c>
+      <c r="E10">
+        <v>3.0610507669890819</v>
+      </c>
+      <c r="F10">
+        <v>6.1785810719029878E-5</v>
+      </c>
+      <c r="G10">
+        <v>0.33664589178196375</v>
+      </c>
+      <c r="H10">
+        <v>1.1433755636931366</v>
+      </c>
+      <c r="I10">
+        <v>1.8724202871439433E-9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>0.26577672103244981</v>
+      </c>
+      <c r="C11">
+        <v>3.54814642720138E-3</v>
+      </c>
+      <c r="D11">
+        <v>7.9133370889094459E-2</v>
+      </c>
+      <c r="E11">
+        <v>4.0195995713649184</v>
+      </c>
+      <c r="F11">
+        <v>1.3199448733005817E-2</v>
+      </c>
+      <c r="G11">
+        <v>0.24028027666240925</v>
+      </c>
+      <c r="H11">
+        <v>0.94782010960658447</v>
+      </c>
+      <c r="I11">
+        <v>5.6746141122830836E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="str">
+        <f>IF(NOT(ISNUMBER(FIND("E",B2))),_xlfn.CONCAT(ROUND(B2,2), " ± ", ROUND(B8,2)),_xlfn.CONCAT(LEFT(B2,4),RIGHT(B2,4), " ± ",LEFT(B8,4),RIGHT(B8,4)))</f>
+        <v>49.3 ± 0.75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" ref="C13:I13" si="0">IF(NOT(ISNUMBER(FIND("E",D2))),_xlfn.CONCAT(ROUND(D2,2), " ± ", ROUND(D8,2)),_xlfn.CONCAT(LEFT(D2,4),RIGHT(D2,4), " ± ",LEFT(D8,4),RIGHT(D8,4)))</f>
+        <v>0.19 ± 0.03</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>20.81 ± 5.58</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>3.08E-14 ± 6.85E-15</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>0.19 ± 0.04</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>0.15 ± 0.04</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>0.06 ± 0.06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" ref="B14:I16" si="1">IF(NOT(ISNUMBER(FIND("E",B3))),_xlfn.CONCAT(ROUND(B3,2), " ± ", ROUND(B9,2)),_xlfn.CONCAT(LEFT(B3,4),RIGHT(B3,4), " ± ",LEFT(B9,4),RIGHT(B9,4)))</f>
+        <v>49.56 ± 0.19</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v>0.02 ± 0.01</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>0.1 ± 0.1</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>19.75 ± 4.43</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>2.16E-05 ± 2.16E-05</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>0.96 ± 0.5</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="1"/>
+        <v>0.86 ± 0.5</v>
+      </c>
+      <c r="I14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="1"/>
+        <v>50.61 ± 0.39</v>
+      </c>
+      <c r="C15" t="str">
+        <f>IF(NOT(ISNUMBER(FIND("E",C4))),_xlfn.CONCAT(ROUND(C4,2), " ± ", ROUND(C10,3)),_xlfn.CONCAT(LEFT(C4,4),RIGHT(C4,4), " ± ",LEFT(C10,4),RIGHT(C10,4)))</f>
+        <v>0.02 ± 0.005</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>0.16 ± 0.08</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>16.6 ± 3.06</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>6.17E-05 ± 6.17E-05</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>0.76 ± 0.34</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="1"/>
+        <v>1.75 ± 1.14</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="1"/>
+        <v>1.87E-09 ± 1.87E-09</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="1"/>
+        <v>50.39 ± 0.27</v>
+      </c>
+      <c r="C16" t="str">
+        <f>IF(NOT(ISNUMBER(FIND("E",C5))),_xlfn.CONCAT(ROUND(C5,2), " ± ", ROUND(C11,3)),_xlfn.CONCAT(LEFT(C5,4),RIGHT(C5,4), " ± ",LEFT(C11,4),RIGHT(C11,4)))</f>
+        <v>0.01 ± 0.004</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>0.13 ± 0.08</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v>17.23 ± 4.02</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>0.02 ± 0.01</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>0.32 ± 0.24</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="1"/>
+        <v>1.18 ± 0.95</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="1"/>
+        <v>0.06 ± 0.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>